--- a/config/blca.xlsx
+++ b/config/blca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitcode\patho_AI\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D966FC-E25D-48BD-956C-68C4D8B9BB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA27B54-F417-4611-B4BB-9649EF765024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7750" yWindow="3220" windowWidth="28660" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3627,7 +3627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3669,11 +3669,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4014,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4045,1487 +4045,1487 @@
         <v>964</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="H3" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="H5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="H5" s="9" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="C6" s="8"/>
+      <c r="H6" s="9" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="H7" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="H8" s="8" t="s">
+      <c r="C8" s="8"/>
+      <c r="H8" s="9" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="8"/>
+      <c r="H9" s="9" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="H10" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="H11" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H13" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H16" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="H18" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="C18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="H22" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="C22" s="8"/>
+      <c r="H22" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="H24" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="C24" s="8"/>
+      <c r="H24" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="H25" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C25" s="8"/>
+      <c r="H25" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="H26" s="8" t="s">
+      <c r="C26" s="8"/>
+      <c r="H26" s="9" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="H27" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="C27" s="8"/>
+      <c r="H27" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="H28" s="8" t="s">
+      <c r="C28" s="8"/>
+      <c r="H28" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="H29" s="8" t="s">
+      <c r="C29" s="8"/>
+      <c r="H29" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="H30" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="H31" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="8"/>
+      <c r="H31" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="H32" s="8" t="s">
+      <c r="C32" s="8"/>
+      <c r="H32" s="9" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="H33" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="C33" s="8"/>
+      <c r="H33" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="H35" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="H36" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="H37" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="H38" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="H39" s="8" t="s">
+      <c r="C39" s="8"/>
+      <c r="H39" s="9" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="H40" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="H41" s="8" t="s">
+      <c r="C41" s="8"/>
+      <c r="H41" s="9" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="H42" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="C42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="H43" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="H44" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="C44" s="8"/>
+      <c r="H44" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="H45" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="C45" s="8"/>
+      <c r="H45" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="H46" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="H47" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="H48" s="8" t="s">
+      <c r="C48" s="8"/>
+      <c r="H48" s="9" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="H49" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="C49" s="8"/>
+      <c r="H49" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="H50" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="C50" s="8"/>
+      <c r="H50" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="H51" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="C51" s="8"/>
+      <c r="H51" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="H52" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="C52" s="8"/>
+      <c r="H52" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="H53" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="8"/>
+      <c r="H53" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="H54" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="C54" s="8"/>
+      <c r="H54" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="9" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="H56" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="C56" s="8"/>
+      <c r="H56" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="H57" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="C57" s="8"/>
+      <c r="H57" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="9" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="9" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="H60" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="C60" s="8"/>
+      <c r="H60" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="H61" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="C61" s="8"/>
+      <c r="H61" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="H62" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="C62" s="8"/>
+      <c r="H62" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="H63" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="C63" s="8"/>
+      <c r="H63" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="9" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="H65" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="C65" s="8"/>
+      <c r="H65" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="H66" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="C66" s="8"/>
+      <c r="H66" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="H67" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="C67" s="8"/>
+      <c r="H67" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="H68" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="H69" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="C69" s="8"/>
+      <c r="H69" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="H70" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="C70" s="8"/>
+      <c r="H70" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="H71" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="C71" s="8"/>
+      <c r="H71" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="H72" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="C72" s="8"/>
+      <c r="H72" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="H73" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="C73" s="8"/>
+      <c r="H73" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="H74" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="C74" s="8"/>
+      <c r="H74" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="H75" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="C75" s="8"/>
+      <c r="H75" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="9" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="H77" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="H78" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="C78" s="8"/>
+      <c r="H78" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="H79" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="H80" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="C80" s="8"/>
+      <c r="H80" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="H81" s="8" t="s">
+      <c r="C81" s="8"/>
+      <c r="H81" s="9" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="H82" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="C82" s="8"/>
+      <c r="H82" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="H83" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="C83" s="8"/>
+      <c r="H83" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="H84" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="C84" s="8"/>
+      <c r="H84" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="H85" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="C85" s="8"/>
+      <c r="H85" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="H86" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="C86" s="8"/>
+      <c r="H86" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="H87" s="8" t="s">
+      <c r="C87" s="8"/>
+      <c r="H87" s="9" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="H88" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="C88" s="8"/>
+      <c r="H88" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="H89" s="8" t="s">
+      <c r="C89" s="8"/>
+      <c r="H89" s="9" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="H90" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="C90" s="8"/>
+      <c r="H90" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="H91" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="C91" s="8"/>
+      <c r="H91" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="H92" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="H93" s="8" t="s">
+      <c r="C93" s="8"/>
+      <c r="H93" s="9" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="H94" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="C94" s="8"/>
+      <c r="H94" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="H95" s="8" t="s">
+      <c r="C95" s="8"/>
+      <c r="H95" s="9" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="H96" s="8" t="s">
+      <c r="C96" s="8"/>
+      <c r="H96" s="9" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="H97" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="C97" s="8"/>
+      <c r="H97" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="H98" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="C98" s="8"/>
+      <c r="H98" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="H99" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="C99" s="8"/>
+      <c r="H99" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="9" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="H101" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="C101" s="8"/>
+      <c r="H101" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="H103" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="H103" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="H104" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="C104" s="8"/>
+      <c r="H104" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="H105" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="C105" s="8"/>
+      <c r="H105" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="H106" s="8" t="s">
+      <c r="C106" s="8"/>
+      <c r="H106" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="H107" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+      <c r="C107" s="8"/>
+      <c r="H107" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="H108" s="8" t="s">
+      <c r="C108" s="8"/>
+      <c r="H108" s="9" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="9" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+    <row r="110" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="H110" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="H110" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="H111" s="8" t="s">
+      <c r="C111" s="8"/>
+      <c r="H111" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="H112" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="C112" s="8"/>
+      <c r="H112" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="H113" s="8" t="s">
+      <c r="C113" s="8"/>
+      <c r="H113" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+    <row r="114" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="H114" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="C114" s="8"/>
+      <c r="H114" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="H115" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="C115" s="8"/>
+      <c r="H115" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="H116" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="C116" s="8"/>
+      <c r="H116" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="H117" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="C117" s="8"/>
+      <c r="H117" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="H118" s="8" t="s">
+      <c r="H118" s="9" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -5540,79 +5540,79 @@
         <v>939</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+    <row r="120" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="H120" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+    <row r="121" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="H121" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+      <c r="C121" s="8"/>
+      <c r="H121" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="H122" s="8" t="s">
+      <c r="C122" s="8"/>
+      <c r="H122" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+    <row r="123" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="H123" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
+      <c r="C123" s="8"/>
+      <c r="H123" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="H124" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+      <c r="C124" s="8"/>
+      <c r="H124" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -5627,29 +5627,29 @@
         <v>941</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+    <row r="127" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="H128" s="8" t="s">
+      <c r="C128" s="8"/>
+      <c r="H128" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -5664,15 +5664,15 @@
         <v>942</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+    <row r="130" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="H130" s="8" t="s">
+      <c r="C130" s="8"/>
+      <c r="H130" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -5698,85 +5698,85 @@
         <v>944</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+    <row r="133" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="H133" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+      <c r="H133" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="H134" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
+      <c r="H134" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="H135" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+      <c r="C135" s="8"/>
+      <c r="H135" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="H136" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="H136" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="H137" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+      <c r="H137" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -5791,661 +5791,661 @@
         <v>944</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
+    <row r="140" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="H140" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="7"/>
-      <c r="H141" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
+      <c r="C141" s="8"/>
+      <c r="H141" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C142" s="7"/>
-      <c r="H142" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+      <c r="C142" s="8"/>
+      <c r="H142" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C143" s="7"/>
-      <c r="H143" s="8" t="s">
+      <c r="C143" s="8"/>
+      <c r="H143" s="9" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+    <row r="144" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="H144" s="8" t="s">
+      <c r="C144" s="8"/>
+      <c r="H144" s="9" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="H145" s="8" t="s">
+      <c r="C145" s="8"/>
+      <c r="H145" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="H146" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="C146" s="8"/>
+      <c r="H146" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="H147" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+      <c r="C147" s="8"/>
+      <c r="H147" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="H148" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+      <c r="C148" s="8"/>
+      <c r="H148" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="H149" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="H149" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="H150" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="H150" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="H151" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="H151" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="H152" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="H152" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="H153" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+      <c r="H153" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="C154" s="7"/>
-      <c r="H154" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+      <c r="C154" s="8"/>
+      <c r="H154" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C155" s="7"/>
-      <c r="H155" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="C155" s="8"/>
+      <c r="H155" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="H156" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="C156" s="8"/>
+      <c r="H156" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="H157" s="8" t="s">
+      <c r="C157" s="8"/>
+      <c r="H157" s="9" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+    <row r="158" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="H158" s="8" t="s">
+      <c r="H158" s="9" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+    <row r="159" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="H159" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
+      <c r="H159" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="H160" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="C160" s="8"/>
+      <c r="H160" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="H161" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
+      <c r="C161" s="8"/>
+      <c r="H161" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C162" s="7"/>
-      <c r="H162" s="8" t="s">
+      <c r="C162" s="8"/>
+      <c r="H162" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
+    <row r="163" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C163" s="7"/>
-      <c r="H163" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+      <c r="C163" s="8"/>
+      <c r="H163" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="C164" s="7"/>
-      <c r="H164" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+      <c r="C164" s="8"/>
+      <c r="H164" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C165" s="7"/>
-      <c r="H165" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
+      <c r="C165" s="8"/>
+      <c r="H165" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="H166" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
+      <c r="C166" s="8"/>
+      <c r="H166" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="H167" s="8" t="s">
+      <c r="C167" s="8"/>
+      <c r="H167" s="9" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+    <row r="168" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="H168" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
+      <c r="H168" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="H169" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
+      <c r="H169" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="H170" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+      <c r="H170" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="H171" s="8" t="s">
+      <c r="C171" s="8"/>
+      <c r="H171" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
+    <row r="172" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C172" s="7"/>
-      <c r="H172" s="8" t="s">
+      <c r="C172" s="8"/>
+      <c r="H172" s="9" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
+    <row r="173" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="H173" s="8" t="s">
+      <c r="H173" s="9" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C174" s="7"/>
-      <c r="H174" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
+      <c r="C174" s="8"/>
+      <c r="H174" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="H175" s="8" t="s">
+      <c r="C175" s="8"/>
+      <c r="H175" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
+    <row r="176" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C176" s="7"/>
-      <c r="H176" s="8" t="s">
+      <c r="C176" s="8"/>
+      <c r="H176" s="9" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
+    <row r="177" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="H177" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
+      <c r="H177" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="C178" s="7"/>
-      <c r="H178" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
+      <c r="C178" s="8"/>
+      <c r="H178" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="C179" s="7"/>
-      <c r="H179" s="8" t="s">
+      <c r="C179" s="8"/>
+      <c r="H179" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
+    <row r="180" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="H180" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
+      <c r="H180" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="H181" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
+      <c r="C181" s="8"/>
+      <c r="H181" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="C182" s="7"/>
-      <c r="H182" s="8" t="s">
+      <c r="C182" s="8"/>
+      <c r="H182" s="9" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
+    <row r="183" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="H183" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
+      <c r="H183" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="H184" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
+      <c r="C184" s="8"/>
+      <c r="H184" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="C185" s="7"/>
-      <c r="H185" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
+      <c r="C185" s="8"/>
+      <c r="H185" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="C186" s="7"/>
-      <c r="H186" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
+      <c r="C186" s="8"/>
+      <c r="H186" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="H187" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
+      <c r="H187" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C188" s="7"/>
-      <c r="H188" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
+      <c r="C188" s="8"/>
+      <c r="H188" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="H189" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
+      <c r="H189" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="H190" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
+      <c r="C190" s="8"/>
+      <c r="H190" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C191" s="7"/>
-      <c r="H191" s="8" t="s">
+      <c r="C191" s="8"/>
+      <c r="H191" s="9" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -6460,253 +6460,253 @@
         <v>960</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
+    <row r="193" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="H193" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
+      <c r="H193" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="H194" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
+      <c r="H194" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="C195" s="7"/>
-      <c r="H195" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
+      <c r="C195" s="8"/>
+      <c r="H195" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="H196" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
+      <c r="H196" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C197" s="7"/>
-      <c r="H197" s="8" t="s">
+      <c r="C197" s="8"/>
+      <c r="H197" s="9" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
+    <row r="198" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C198" s="7"/>
-      <c r="H198" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
+      <c r="C198" s="8"/>
+      <c r="H198" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="C199" s="7"/>
-      <c r="H199" s="8" t="s">
+      <c r="C199" s="8"/>
+      <c r="H199" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
+    <row r="200" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C200" s="7"/>
-      <c r="H200" s="8" t="s">
+      <c r="C200" s="8"/>
+      <c r="H200" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
+    <row r="201" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H201" s="8" t="s">
+      <c r="H201" s="9" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7" t="s">
+    <row r="202" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="8" t="s">
+      <c r="C202" s="8"/>
+      <c r="D202" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H202" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
+      <c r="H202" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C203" s="7"/>
-      <c r="D203" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E203" s="8" t="s">
+      <c r="C203" s="8"/>
+      <c r="D203" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E203" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H203" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
+      <c r="H203" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="C204" s="7"/>
-      <c r="D204" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E204" s="8" t="s">
+      <c r="C204" s="8"/>
+      <c r="D204" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E204" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H204" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
+      <c r="H204" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="C205" s="7"/>
-      <c r="D205" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E205" s="8" t="s">
+      <c r="C205" s="8"/>
+      <c r="D205" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E205" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H205" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
+      <c r="H205" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E206" s="8" t="s">
+      <c r="C206" s="8"/>
+      <c r="D206" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E206" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="H206" s="9" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
+    <row r="207" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H207" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7" t="s">
+      <c r="H207" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E208" s="8" t="s">
+      <c r="C208" s="8"/>
+      <c r="D208" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E208" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H208" s="8" t="s">
+      <c r="H208" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -6744,21 +6744,21 @@
         <v>976</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7" t="s">
+    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E211" s="8" t="s">
+      <c r="C211" s="8"/>
+      <c r="D211" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E211" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H211" s="8" t="s">
+      <c r="H211" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -6864,41 +6864,41 @@
         <v>976</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7" t="s">
+    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D218" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H218" s="8" t="s">
+      <c r="H218" s="9" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
+    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="C219" s="7"/>
-      <c r="D219" s="8" t="s">
+      <c r="C219" s="8"/>
+      <c r="D219" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H219" s="8" t="s">
+      <c r="H219" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7025,15 +7025,15 @@
       </c>
       <c r="C230" s="5"/>
     </row>
-    <row r="231" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7" t="s">
+    <row r="231" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="C231" s="7"/>
-      <c r="H231" s="8" t="s">
+      <c r="C231" s="8"/>
+      <c r="H231" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -7059,17 +7059,17 @@
         <v>902</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
+    <row r="234" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7106,17 +7106,17 @@
         <v>902</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
+    <row r="238" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -7182,61 +7182,61 @@
       </c>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
+    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="D245" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E245" s="8" t="s">
+      <c r="E245" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="9" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7" t="s">
+    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C246" s="7"/>
-      <c r="D246" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E246" s="8" t="s">
+      <c r="C246" s="8"/>
+      <c r="D246" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E246" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H246" s="8" t="s">
+      <c r="H246" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7" t="s">
+    <row r="247" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="D247" s="8" t="s">
+      <c r="D247" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E247" s="8" t="s">
+      <c r="E247" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="9" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -7262,29 +7262,29 @@
         <v>897</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7" t="s">
+    <row r="250" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="H250" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="7" t="s">
+      <c r="H250" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C251" s="7"/>
-      <c r="H251" s="8" t="s">
+      <c r="C251" s="8"/>
+      <c r="H251" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7299,23 +7299,23 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
+    <row r="253" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="D253" s="8" t="s">
+      <c r="D253" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E253" s="8" t="s">
+      <c r="E253" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H253" s="8" t="s">
+      <c r="H253" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7330,51 +7330,51 @@
         <v>981</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
+    <row r="255" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="C255" s="7"/>
-      <c r="D255" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E255" s="8" t="s">
+      <c r="C255" s="8"/>
+      <c r="D255" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E255" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H255" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
+      <c r="H255" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="C256" s="7"/>
-      <c r="H256" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
+      <c r="C256" s="8"/>
+      <c r="H256" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C257" s="7"/>
-      <c r="D257" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E257" s="8" t="s">
+      <c r="C257" s="8"/>
+      <c r="D257" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E257" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H257" s="8" t="s">
+      <c r="H257" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -7393,165 +7393,165 @@
         <v>974</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
+    <row r="259" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C259" s="7"/>
-      <c r="D259" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E259" s="8" t="s">
+      <c r="C259" s="8"/>
+      <c r="D259" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E259" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H259" s="8" t="s">
+      <c r="H259" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
+    <row r="260" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="H260" s="8" t="s">
+      <c r="H260" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
+    <row r="261" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="D261" s="8" t="s">
+      <c r="D261" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E261" s="8" t="s">
+      <c r="E261" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H261" s="8" t="s">
+      <c r="H261" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
+    <row r="262" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C262" s="7"/>
-      <c r="H262" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
+      <c r="C262" s="8"/>
+      <c r="H262" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="D263" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E263" s="8" t="s">
+      <c r="D263" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E263" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H263" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
+      <c r="H263" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="D264" s="8" t="s">
+      <c r="D264" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E264" s="8" t="s">
+      <c r="E264" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H264" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
+      <c r="H264" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="D265" s="8" t="s">
+      <c r="D265" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E265" s="8" t="s">
+      <c r="E265" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H265" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
+      <c r="H265" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="D266" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E266" s="8" t="s">
+      <c r="D266" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E266" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H266" s="8" t="s">
+      <c r="H266" s="9" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
+    <row r="267" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="C267" s="7"/>
-      <c r="D267" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E267" s="8" t="s">
+      <c r="C267" s="8"/>
+      <c r="D267" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E267" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H267" s="8" t="s">
+      <c r="H267" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -7623,57 +7623,57 @@
         <v>976</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
+    <row r="272" spans="1:8" s="9" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C272" s="7"/>
-      <c r="D272" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E272" s="8" t="s">
+      <c r="C272" s="8"/>
+      <c r="D272" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E272" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H272" s="8" t="s">
+      <c r="H272" s="9" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
+    <row r="273" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="C273" s="7"/>
-      <c r="D273" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E273" s="8" t="s">
+      <c r="C273" s="8"/>
+      <c r="D273" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E273" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H273" s="8" t="s">
+      <c r="H273" s="9" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
+    <row r="274" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="C274" s="7"/>
-      <c r="D274" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E274" s="8" t="s">
+      <c r="C274" s="8"/>
+      <c r="D274" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E274" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H274" s="8" t="s">
+      <c r="H274" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -7711,43 +7711,43 @@
         <v>972</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
+    <row r="277" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="D277" s="8" t="s">
+      <c r="D277" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E277" s="8" t="s">
+      <c r="E277" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H277" s="8" t="s">
+      <c r="H277" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
+    <row r="278" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="D278" s="8" t="s">
+      <c r="D278" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E278" s="8" t="s">
+      <c r="E278" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H278" s="8" t="s">
+      <c r="H278" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -7785,23 +7785,23 @@
         <v>972</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
+    <row r="281" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="D281" s="8" t="s">
+      <c r="D281" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E281" s="8" t="s">
+      <c r="E281" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H281" s="8" t="s">
+      <c r="H281" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -7839,295 +7839,295 @@
         <v>972</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
+    <row r="284" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C284" s="7"/>
-      <c r="D284" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E284" s="8" t="s">
+      <c r="C284" s="8"/>
+      <c r="D284" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E284" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H284" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7" t="s">
+      <c r="H284" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="C285" s="7"/>
-      <c r="D285" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E285" s="8" t="s">
+      <c r="C285" s="8"/>
+      <c r="D285" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E285" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H285" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
+      <c r="H285" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="C286" s="7"/>
-      <c r="D286" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E286" s="8" t="s">
+      <c r="C286" s="8"/>
+      <c r="D286" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E286" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H286" s="8" t="s">
+      <c r="H286" s="9" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
+    <row r="287" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C287" s="7"/>
-      <c r="D287" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E287" s="8" t="s">
+      <c r="C287" s="8"/>
+      <c r="D287" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E287" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H287" s="8" t="s">
+      <c r="H287" s="9" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="288" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
+    <row r="288" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C288" s="7"/>
-      <c r="D288" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E288" s="8" t="s">
+      <c r="C288" s="8"/>
+      <c r="D288" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E288" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H288" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="7" t="s">
+      <c r="H288" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C289" s="7"/>
-      <c r="D289" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E289" s="8" t="s">
+      <c r="C289" s="8"/>
+      <c r="D289" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E289" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H289" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7" t="s">
+      <c r="H289" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" s="9" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="C290" s="7"/>
-      <c r="D290" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E290" s="8" t="s">
+      <c r="C290" s="8"/>
+      <c r="D290" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E290" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H290" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="H290" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C291" s="7"/>
-      <c r="D291" s="8" t="s">
+      <c r="C291" s="8"/>
+      <c r="D291" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E291" s="8" t="s">
+      <c r="E291" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H291" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+      <c r="H291" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="C292" s="7"/>
-      <c r="D292" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E292" s="8" t="s">
+      <c r="C292" s="8"/>
+      <c r="D292" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E292" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H292" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="H292" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C293" s="7"/>
-      <c r="D293" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E293" s="8" t="s">
+      <c r="C293" s="8"/>
+      <c r="D293" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E293" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H293" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+      <c r="H293" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C294" s="7"/>
-      <c r="D294" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E294" s="8" t="s">
+      <c r="C294" s="8"/>
+      <c r="D294" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E294" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H294" s="8" t="s">
+      <c r="H294" s="9" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+    <row r="295" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D295" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E295" s="8" t="s">
+      <c r="D295" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E295" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H295" s="8" t="s">
+      <c r="H295" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
+    <row r="296" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C296" s="7"/>
-      <c r="D296" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E296" s="8" t="s">
+      <c r="C296" s="8"/>
+      <c r="D296" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E296" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H296" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
+      <c r="H296" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C297" s="7"/>
-      <c r="D297" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E297" s="8" t="s">
+      <c r="C297" s="8"/>
+      <c r="D297" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E297" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H297" s="8" t="s">
+      <c r="H297" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="7" t="s">
+    <row r="298" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="D298" s="8" t="s">
+      <c r="D298" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E298" s="8" t="s">
+      <c r="E298" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H298" s="8" t="s">
+      <c r="H298" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
+    <row r="299" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="C299" s="7"/>
-      <c r="D299" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E299" s="8" t="s">
+      <c r="C299" s="8"/>
+      <c r="D299" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E299" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H299" s="8" t="s">
+      <c r="H299" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -8165,59 +8165,59 @@
         <v>974</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
+    <row r="302" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C302" s="7"/>
-      <c r="D302" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E302" s="8" t="s">
+      <c r="C302" s="8"/>
+      <c r="D302" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E302" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H302" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7" t="s">
+      <c r="H302" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="D303" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E303" s="8" t="s">
+      <c r="D303" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E303" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H303" s="8" t="s">
+      <c r="H303" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="7" t="s">
+    <row r="304" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="C304" s="7"/>
-      <c r="D304" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E304" s="8" t="s">
+      <c r="C304" s="8"/>
+      <c r="D304" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E304" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H304" s="8" t="s">
+      <c r="H304" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -8255,145 +8255,145 @@
         <v>974</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
+    <row r="307" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C307" s="7"/>
-      <c r="D307" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E307" s="8" t="s">
+      <c r="C307" s="8"/>
+      <c r="D307" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E307" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H307" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
+      <c r="H307" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C308" s="7"/>
-      <c r="H308" s="8" t="s">
+      <c r="C308" s="8"/>
+      <c r="H308" s="9" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="7" t="s">
+    <row r="309" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C309" s="7"/>
-      <c r="H309" s="8" t="s">
+      <c r="C309" s="8"/>
+      <c r="H309" s="9" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="7" t="s">
+    <row r="310" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="C310" s="7"/>
-      <c r="H310" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="7" t="s">
+      <c r="C310" s="8"/>
+      <c r="H310" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="C311" s="7"/>
-      <c r="D311" s="8" t="s">
+      <c r="C311" s="8"/>
+      <c r="D311" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E311" s="8" t="s">
+      <c r="E311" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H311" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="7" t="s">
+      <c r="H311" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C312" s="7"/>
-      <c r="D312" s="8" t="s">
+      <c r="C312" s="8"/>
+      <c r="D312" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E312" s="8" t="s">
+      <c r="E312" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H312" s="8" t="s">
+      <c r="H312" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="7" t="s">
+    <row r="313" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="D313" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E313" s="8" t="s">
+      <c r="D313" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E313" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H313" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="7" t="s">
+      <c r="H313" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="D314" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E314" s="8" t="s">
+      <c r="D314" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E314" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H314" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="7" t="s">
+      <c r="H314" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="C315" s="7"/>
-      <c r="H315" s="8" t="s">
+      <c r="C315" s="8"/>
+      <c r="H315" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8414,77 +8414,77 @@
         <v>976</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+    <row r="317" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="D317" s="8" t="s">
+      <c r="D317" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H317" s="8" t="s">
+      <c r="H317" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
+    <row r="318" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="C318" s="7"/>
-      <c r="D318" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E318" s="8" t="s">
+      <c r="C318" s="8"/>
+      <c r="D318" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E318" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H318" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
+      <c r="H318" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C319" s="7"/>
-      <c r="D319" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E319" s="8" t="s">
+      <c r="C319" s="8"/>
+      <c r="D319" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E319" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H319" s="8" t="s">
+      <c r="H319" s="9" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
+    <row r="320" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="C320" s="7"/>
-      <c r="D320" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E320" s="8" t="s">
+      <c r="C320" s="8"/>
+      <c r="D320" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E320" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H320" s="8" t="s">
+      <c r="H320" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -8505,39 +8505,39 @@
         <v>974</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="7" t="s">
+    <row r="322" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C322" s="7"/>
-      <c r="D322" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E322" s="8" t="s">
+      <c r="C322" s="8"/>
+      <c r="D322" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E322" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H322" s="8" t="s">
+      <c r="H322" s="9" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
+    <row r="323" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="C323" s="7"/>
-      <c r="D323" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E323" s="8" t="s">
+      <c r="C323" s="8"/>
+      <c r="D323" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E323" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H323" s="8" t="s">
+      <c r="H323" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -8552,47 +8552,47 @@
         <v>990</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
+    <row r="325" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D325" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E325" s="8" t="s">
+      <c r="D325" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E325" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H325" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
+      <c r="H325" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="C326" s="7"/>
-      <c r="H326" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
+      <c r="C326" s="8"/>
+      <c r="H326" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="C327" s="7"/>
-      <c r="H327" s="8" t="s">
+      <c r="C327" s="8"/>
+      <c r="H327" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -8607,63 +8607,63 @@
         <v>901</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
+    <row r="329" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C329" s="7"/>
-      <c r="H329" s="8" t="s">
+      <c r="C329" s="8"/>
+      <c r="H329" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
+    <row r="330" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="C330" s="7"/>
-      <c r="D330" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E330" s="8" t="s">
+      <c r="C330" s="8"/>
+      <c r="D330" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E330" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H330" s="8" t="s">
+      <c r="H330" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="331" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
+    <row r="331" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="C331" s="7"/>
-      <c r="D331" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E331" s="8" t="s">
+      <c r="C331" s="8"/>
+      <c r="D331" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E331" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H331" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
+      <c r="H331" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="C332" s="7"/>
-      <c r="H332" s="8" t="s">
+      <c r="C332" s="8"/>
+      <c r="H332" s="9" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -8675,337 +8675,337 @@
         <v>804</v>
       </c>
       <c r="C333" s="3"/>
-      <c r="H333" s="9" t="s">
+      <c r="H333" s="7" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="334" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
+    <row r="334" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C334" s="7"/>
-      <c r="H334" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
+      <c r="C334" s="8"/>
+      <c r="H334" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C335" s="7"/>
-      <c r="D335" s="8" t="s">
+      <c r="C335" s="8"/>
+      <c r="D335" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="E335" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H335" s="8" t="s">
+      <c r="H335" s="9" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
+    <row r="336" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="C336" s="7"/>
-      <c r="D336" s="8" t="s">
+      <c r="C336" s="8"/>
+      <c r="D336" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E336" s="8" t="s">
+      <c r="E336" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H336" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
+      <c r="H336" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C337" s="7"/>
-      <c r="D337" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E337" s="8" t="s">
+      <c r="C337" s="8"/>
+      <c r="D337" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E337" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H337" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
+      <c r="H337" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C338" s="7"/>
-      <c r="D338" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E338" s="8" t="s">
+      <c r="C338" s="8"/>
+      <c r="D338" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E338" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H338" s="8" t="s">
+      <c r="H338" s="9" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="339" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
+    <row r="339" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="C339" s="7"/>
-      <c r="D339" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E339" s="8" t="s">
+      <c r="C339" s="8"/>
+      <c r="D339" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E339" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H339" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="7" t="s">
+      <c r="H339" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="C340" s="7"/>
-      <c r="D340" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E340" s="8" t="s">
+      <c r="C340" s="8"/>
+      <c r="D340" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E340" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H340" s="8" t="s">
+      <c r="H340" s="9" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="341" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
+    <row r="341" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C341" s="7"/>
-      <c r="H341" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7" t="s">
+      <c r="C341" s="8"/>
+      <c r="H341" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C342" s="7"/>
-      <c r="D342" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E342" s="8" t="s">
+      <c r="C342" s="8"/>
+      <c r="D342" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E342" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H342" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
+      <c r="H342" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="C343" s="7"/>
-      <c r="D343" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E343" s="8" t="s">
+      <c r="C343" s="8"/>
+      <c r="D343" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E343" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H343" s="8" t="s">
+      <c r="H343" s="9" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="7" t="s">
+    <row r="344" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B344" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="D344" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E344" s="8" t="s">
+      <c r="D344" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E344" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H344" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
+      <c r="H344" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="C345" s="7"/>
-      <c r="H345" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
+      <c r="C345" s="8"/>
+      <c r="H345" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="C346" s="7"/>
-      <c r="D346" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E346" s="8" t="s">
+      <c r="C346" s="8"/>
+      <c r="D346" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E346" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H346" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
+      <c r="H346" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C347" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="D347" s="8" t="s">
+      <c r="D347" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H347" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
+      <c r="H347" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="C348" s="7"/>
-      <c r="D348" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E348" s="8" t="s">
+      <c r="C348" s="8"/>
+      <c r="D348" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E348" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H348" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="7" t="s">
+      <c r="H348" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C349" s="7"/>
-      <c r="D349" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E349" s="8" t="s">
+      <c r="C349" s="8"/>
+      <c r="D349" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E349" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H349" s="8" t="s">
+      <c r="H349" s="9" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="350" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
+    <row r="350" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="C350" s="7"/>
-      <c r="D350" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E350" s="8" t="s">
+      <c r="C350" s="8"/>
+      <c r="D350" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E350" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H350" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="7" t="s">
+      <c r="H350" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="C351" s="7"/>
-      <c r="D351" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E351" s="8" t="s">
+      <c r="C351" s="8"/>
+      <c r="D351" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E351" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H351" s="8" t="s">
+      <c r="H351" s="9" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="352" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
+    <row r="352" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="D352" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E352" s="8" t="s">
+      <c r="D352" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E352" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H352" s="8" t="s">
+      <c r="H352" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -9025,443 +9025,443 @@
       <c r="E353" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="H353" s="9" t="s">
+      <c r="H353" s="7" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="354" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="7" t="s">
+    <row r="354" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B354" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C354" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="D354" s="8" t="s">
+      <c r="D354" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H354" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="7" t="s">
+      <c r="H354" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B355" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="C355" s="7"/>
-      <c r="D355" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E355" s="8" t="s">
+      <c r="C355" s="8"/>
+      <c r="D355" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E355" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H355" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
+      <c r="H355" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="C356" s="7"/>
-      <c r="D356" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E356" s="8" t="s">
+      <c r="C356" s="8"/>
+      <c r="D356" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E356" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H356" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
+      <c r="H356" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C357" s="7"/>
-      <c r="D357" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E357" s="8" t="s">
+      <c r="C357" s="8"/>
+      <c r="D357" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E357" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H357" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="7" t="s">
+      <c r="H357" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C358" s="7"/>
-      <c r="D358" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E358" s="8" t="s">
+      <c r="C358" s="8"/>
+      <c r="D358" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E358" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H358" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="7" t="s">
+      <c r="H358" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="C359" s="7"/>
-      <c r="D359" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E359" s="8" t="s">
+      <c r="C359" s="8"/>
+      <c r="D359" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E359" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H359" s="8" t="s">
+      <c r="H359" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
+    <row r="360" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="C360" s="7"/>
-      <c r="D360" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E360" s="8" t="s">
+      <c r="C360" s="8"/>
+      <c r="D360" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E360" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H360" s="8" t="s">
+      <c r="H360" s="9" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+    <row r="361" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="C361" s="7"/>
-      <c r="H361" s="8" t="s">
+      <c r="C361" s="8"/>
+      <c r="H361" s="9" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="362" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="7" t="s">
+    <row r="362" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C362" s="7"/>
-      <c r="D362" s="8" t="s">
+      <c r="C362" s="8"/>
+      <c r="D362" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E362" s="8" t="s">
+      <c r="E362" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H362" s="8" t="s">
+      <c r="H362" s="9" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="363" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="7" t="s">
+    <row r="363" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C363" s="7"/>
-      <c r="D363" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E363" s="8" t="s">
+      <c r="C363" s="8"/>
+      <c r="D363" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E363" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H363" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
+      <c r="H363" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C364" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D364" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E364" s="8" t="s">
+      <c r="D364" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E364" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H364" s="8" t="s">
+      <c r="H364" s="9" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="365" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="7" t="s">
+    <row r="365" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="C365" s="7"/>
-      <c r="D365" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E365" s="8" t="s">
+      <c r="C365" s="8"/>
+      <c r="D365" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E365" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H365" s="8" t="s">
+      <c r="H365" s="9" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="366" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="7" t="s">
+    <row r="366" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C366" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="D366" s="8" t="s">
+      <c r="D366" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E366" s="8" t="s">
+      <c r="E366" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H366" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="7" t="s">
+      <c r="H366" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C367" s="7"/>
-      <c r="H367" s="8" t="s">
+      <c r="C367" s="8"/>
+      <c r="H367" s="9" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="368" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="7" t="s">
+    <row r="368" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="C368" s="7"/>
-      <c r="D368" s="8" t="s">
+      <c r="C368" s="8"/>
+      <c r="D368" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E368" s="8" t="s">
+      <c r="E368" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H368" s="8" t="s">
+      <c r="H368" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="369" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="7" t="s">
+    <row r="369" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C369" s="7"/>
-      <c r="D369" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E369" s="8" t="s">
+      <c r="C369" s="8"/>
+      <c r="D369" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E369" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H369" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
+      <c r="H369" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="C370" s="7"/>
-      <c r="H370" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="7" t="s">
+      <c r="C370" s="8"/>
+      <c r="H370" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C371" s="7"/>
-      <c r="H371" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="7" t="s">
+      <c r="C371" s="8"/>
+      <c r="H371" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="C372" s="7"/>
-      <c r="D372" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E372" s="8" t="s">
+      <c r="C372" s="8"/>
+      <c r="D372" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E372" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H372" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="7" t="s">
+      <c r="H372" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="C373" s="7"/>
-      <c r="D373" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E373" s="8" t="s">
+      <c r="C373" s="8"/>
+      <c r="D373" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E373" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H373" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
+      <c r="H373" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C374" s="7"/>
-      <c r="D374" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E374" s="8" t="s">
+      <c r="C374" s="8"/>
+      <c r="D374" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E374" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H374" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
+      <c r="H374" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="C375" s="7"/>
-      <c r="D375" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E375" s="8" t="s">
+      <c r="C375" s="8"/>
+      <c r="D375" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E375" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H375" s="8" t="s">
+      <c r="H375" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="376" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="7" t="s">
+    <row r="376" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C376" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="D376" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E376" s="8" t="s">
+      <c r="D376" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E376" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H376" s="8" t="s">
+      <c r="H376" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="377" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="7" t="s">
+    <row r="377" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="C377" s="7"/>
-      <c r="D377" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E377" s="8" t="s">
+      <c r="C377" s="8"/>
+      <c r="D377" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E377" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H377" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="7" t="s">
+      <c r="H377" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C378" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="D378" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E378" s="8" t="s">
+      <c r="D378" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E378" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H378" s="8" t="s">
+      <c r="H378" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -9476,397 +9476,397 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="380" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="7" t="s">
+    <row r="380" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="C380" s="7"/>
-      <c r="D380" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E380" s="8" t="s">
+      <c r="C380" s="8"/>
+      <c r="D380" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E380" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H380" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
+      <c r="H380" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C381" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="D381" s="8" t="s">
+      <c r="D381" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E381" s="8" t="s">
+      <c r="E381" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H381" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
+      <c r="H381" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C382" s="7"/>
-      <c r="D382" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E382" s="8" t="s">
+      <c r="C382" s="8"/>
+      <c r="D382" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E382" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H382" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="7" t="s">
+      <c r="H382" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="C383" s="7"/>
-      <c r="D383" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E383" s="8" t="s">
+      <c r="C383" s="8"/>
+      <c r="D383" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E383" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H383" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="7" t="s">
+      <c r="H383" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="C384" s="7"/>
-      <c r="D384" s="8" t="s">
+      <c r="C384" s="8"/>
+      <c r="D384" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E384" s="8" t="s">
+      <c r="E384" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H384" s="8" t="s">
+      <c r="H384" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="385" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="7" t="s">
+    <row r="385" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="C385" s="7"/>
-      <c r="D385" s="8" t="s">
+      <c r="C385" s="8"/>
+      <c r="D385" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E385" s="8" t="s">
+      <c r="E385" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H385" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="7" t="s">
+      <c r="H385" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C386" s="7"/>
-      <c r="D386" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E386" s="8" t="s">
+      <c r="C386" s="8"/>
+      <c r="D386" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E386" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H386" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
+      <c r="H386" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="D387" s="8" t="s">
+      <c r="D387" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E387" s="8" t="s">
+      <c r="E387" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H387" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="7" t="s">
+      <c r="H387" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="C388" s="7"/>
-      <c r="D388" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E388" s="8" t="s">
+      <c r="C388" s="8"/>
+      <c r="D388" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E388" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H388" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="7" t="s">
+      <c r="H388" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C389" s="7"/>
-      <c r="D389" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E389" s="8" t="s">
+      <c r="C389" s="8"/>
+      <c r="D389" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E389" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H389" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="7" t="s">
+      <c r="H389" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="C390" s="7"/>
-      <c r="D390" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E390" s="8" t="s">
+      <c r="C390" s="8"/>
+      <c r="D390" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E390" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H390" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="7" t="s">
+      <c r="H390" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="C391" s="7"/>
-      <c r="D391" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E391" s="8" t="s">
+      <c r="C391" s="8"/>
+      <c r="D391" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E391" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H391" s="8" t="s">
+      <c r="H391" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="392" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="7" t="s">
+    <row r="392" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="C392" s="7"/>
-      <c r="D392" s="8" t="s">
+      <c r="C392" s="8"/>
+      <c r="D392" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E392" s="8" t="s">
+      <c r="E392" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H392" s="8" t="s">
+      <c r="H392" s="9" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="393" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="7" t="s">
+    <row r="393" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C393" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="D393" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E393" s="8" t="s">
+      <c r="D393" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E393" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H393" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="7" t="s">
+      <c r="H393" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="C394" s="7"/>
-      <c r="H394" s="8" t="s">
+      <c r="C394" s="8"/>
+      <c r="H394" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="395" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="7" t="s">
+    <row r="395" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="D395" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E395" s="8" t="s">
+      <c r="D395" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E395" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H395" s="8" t="s">
+      <c r="H395" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="396" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="7" t="s">
+    <row r="396" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="C396" s="7"/>
-      <c r="H396" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="7" t="s">
+      <c r="C396" s="8"/>
+      <c r="H396" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C397" s="7"/>
-      <c r="D397" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E397" s="8" t="s">
+      <c r="C397" s="8"/>
+      <c r="D397" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E397" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H397" s="8" t="s">
+      <c r="H397" s="9" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="398" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="7" t="s">
+    <row r="398" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C398" s="7"/>
-      <c r="D398" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E398" s="8" t="s">
+      <c r="C398" s="8"/>
+      <c r="D398" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E398" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H398" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="7" t="s">
+      <c r="H398" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C399" s="7"/>
-      <c r="D399" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E399" s="8" t="s">
+      <c r="C399" s="8"/>
+      <c r="D399" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E399" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H399" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="7" t="s">
+      <c r="H399" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="C400" s="7"/>
-      <c r="D400" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E400" s="8" t="s">
+      <c r="C400" s="8"/>
+      <c r="D400" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E400" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H400" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7" t="s">
+      <c r="H400" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B401" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="D401" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E401" s="8" t="s">
+      <c r="D401" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E401" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H401" s="8" t="s">
+      <c r="H401" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -9881,373 +9881,373 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="403" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7" t="s">
+    <row r="403" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="D403" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E403" s="8" t="s">
+      <c r="D403" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E403" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H403" s="8" t="s">
+      <c r="H403" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="404" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="7" t="s">
+    <row r="404" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="C404" s="7"/>
-      <c r="D404" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E404" s="8" t="s">
+      <c r="C404" s="8"/>
+      <c r="D404" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E404" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H404" s="8" t="s">
+      <c r="H404" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="405" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="7" t="s">
+    <row r="405" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="D405" s="8" t="s">
+      <c r="D405" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E405" s="8" t="s">
+      <c r="E405" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H405" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="7" t="s">
+      <c r="H405" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C406" s="7"/>
-      <c r="D406" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E406" s="8" t="s">
+      <c r="C406" s="8"/>
+      <c r="D406" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E406" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H406" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="7" t="s">
+      <c r="H406" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="D407" s="8" t="s">
+      <c r="D407" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E407" s="8" t="s">
+      <c r="E407" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H407" s="8" t="s">
+      <c r="H407" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="408" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="7" t="s">
+    <row r="408" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C408" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="D408" s="8" t="s">
+      <c r="D408" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E408" s="8" t="s">
+      <c r="E408" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H408" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="7" t="s">
+      <c r="H408" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="C409" s="7"/>
-      <c r="D409" s="8" t="s">
+      <c r="C409" s="8"/>
+      <c r="D409" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E409" s="8" t="s">
+      <c r="E409" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H409" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="7" t="s">
+      <c r="H409" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D410" s="8" t="s">
+      <c r="D410" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E410" s="8" t="s">
+      <c r="E410" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H410" s="8" t="s">
+      <c r="H410" s="9" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="411" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="7" t="s">
+    <row r="411" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="C411" s="7"/>
-      <c r="D411" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E411" s="8" t="s">
+      <c r="C411" s="8"/>
+      <c r="D411" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E411" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H411" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
+      <c r="H411" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="C412" s="7"/>
-      <c r="D412" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E412" s="8" t="s">
+      <c r="C412" s="8"/>
+      <c r="D412" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E412" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H412" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="H412" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="C413" s="7"/>
-      <c r="H413" s="8" t="s">
+      <c r="C413" s="8"/>
+      <c r="H413" s="9" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="414" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="7" t="s">
+    <row r="414" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="C414" s="7"/>
-      <c r="D414" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E414" s="8" t="s">
+      <c r="C414" s="8"/>
+      <c r="D414" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E414" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H414" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="7" t="s">
+      <c r="H414" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="C415" s="7"/>
-      <c r="D415" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E415" s="8" t="s">
+      <c r="C415" s="8"/>
+      <c r="D415" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E415" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H415" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="7" t="s">
+      <c r="H415" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C416" s="7"/>
-      <c r="D416" s="8" t="s">
+      <c r="C416" s="8"/>
+      <c r="D416" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E416" s="8" t="s">
+      <c r="E416" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H416" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+      <c r="H416" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C417" s="7"/>
-      <c r="D417" s="8" t="s">
+      <c r="C417" s="8"/>
+      <c r="D417" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E417" s="8" t="s">
+      <c r="E417" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H417" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
+      <c r="H417" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C418" s="7"/>
-      <c r="D418" s="8" t="s">
+      <c r="C418" s="8"/>
+      <c r="D418" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E418" s="8" t="s">
+      <c r="E418" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H418" s="8" t="s">
+      <c r="H418" s="9" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="419" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+    <row r="419" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="C419" s="7"/>
-      <c r="H419" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="7" t="s">
+      <c r="C419" s="8"/>
+      <c r="H419" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="C420" s="7"/>
-      <c r="H420" s="8" t="s">
+      <c r="C420" s="8"/>
+      <c r="H420" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="421" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="7" t="s">
+    <row r="421" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="C421" s="7"/>
-      <c r="D421" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E421" s="8" t="s">
+      <c r="C421" s="8"/>
+      <c r="D421" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E421" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H421" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="7" t="s">
+      <c r="H421" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="C422" s="7"/>
-      <c r="D422" s="8" t="s">
+      <c r="C422" s="8"/>
+      <c r="D422" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E422" s="8" t="s">
+      <c r="E422" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H422" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="7" t="s">
+      <c r="H422" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C423" s="7"/>
-      <c r="D423" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E423" s="8" t="s">
+      <c r="C423" s="8"/>
+      <c r="D423" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E423" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H423" s="8" t="s">
+      <c r="H423" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -10273,109 +10273,109 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="426" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="7" t="s">
+    <row r="426" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="C426" s="7"/>
-      <c r="D426" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E426" s="8" t="s">
+      <c r="C426" s="8"/>
+      <c r="D426" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E426" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H426" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="7" t="s">
+      <c r="H426" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C427" s="8" t="s">
         <v>1014</v>
       </c>
-      <c r="D427" s="8" t="s">
+      <c r="D427" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E427" s="8" t="s">
+      <c r="E427" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H427" s="8" t="s">
+      <c r="H427" s="9" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="428" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
+    <row r="428" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="C428" s="7"/>
-      <c r="D428" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E428" s="8" t="s">
+      <c r="C428" s="8"/>
+      <c r="D428" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E428" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H428" s="8" t="s">
+      <c r="H428" s="9" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="429" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="7" t="s">
+    <row r="429" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C429" s="7"/>
-      <c r="D429" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E429" s="8" t="s">
+      <c r="C429" s="8"/>
+      <c r="D429" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E429" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H429" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="7" t="s">
+      <c r="H429" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C430" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="D430" s="8" t="s">
+      <c r="D430" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E430" s="8" t="s">
+      <c r="E430" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H430" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="7" t="s">
+      <c r="H430" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="C431" s="7"/>
-      <c r="H431" s="8" t="s">
+      <c r="C431" s="8"/>
+      <c r="H431" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -10412,57 +10412,57 @@
         <v>903</v>
       </c>
     </row>
-    <row r="435" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="7" t="s">
+    <row r="435" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C435" s="7"/>
-      <c r="D435" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E435" s="8" t="s">
+      <c r="C435" s="8"/>
+      <c r="D435" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E435" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H435" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="7" t="s">
+      <c r="H435" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C436" s="7"/>
-      <c r="D436" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E436" s="8" t="s">
+      <c r="C436" s="8"/>
+      <c r="D436" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E436" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H436" s="8" t="s">
+      <c r="H436" s="9" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="437" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="7" t="s">
+    <row r="437" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C437" s="7"/>
-      <c r="D437" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E437" s="8" t="s">
+      <c r="C437" s="8"/>
+      <c r="D437" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E437" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H437" s="8" t="s">
+      <c r="H437" s="9" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -10477,77 +10477,77 @@
         <v>899</v>
       </c>
     </row>
-    <row r="439" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="7" t="s">
+    <row r="439" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C439" s="7"/>
-      <c r="D439" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E439" s="8" t="s">
+      <c r="C439" s="8"/>
+      <c r="D439" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E439" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H439" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="7" t="s">
+      <c r="H439" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C440" s="7"/>
-      <c r="H440" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="7" t="s">
+      <c r="C440" s="8"/>
+      <c r="H440" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C441" s="7"/>
-      <c r="H441" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="7" t="s">
+      <c r="C441" s="8"/>
+      <c r="H441" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C442" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="H442" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="7" t="s">
+      <c r="H442" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="C443" s="7"/>
-      <c r="D443" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E443" s="8" t="s">
+      <c r="C443" s="8"/>
+      <c r="D443" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E443" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H443" s="8" t="s">
+      <c r="H443" s="9" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -10568,247 +10568,247 @@
         <v>976</v>
       </c>
     </row>
-    <row r="445" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="7" t="s">
+    <row r="445" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C445" s="7"/>
-      <c r="D445" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E445" s="8" t="s">
+      <c r="C445" s="8"/>
+      <c r="D445" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E445" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="H445" s="8" t="s">
+      <c r="H445" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="446" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="7" t="s">
+    <row r="446" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C446" s="7"/>
-      <c r="D446" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E446" s="8" t="s">
+      <c r="C446" s="8"/>
+      <c r="D446" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E446" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H446" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="7" t="s">
+      <c r="H446" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C447" s="7"/>
-      <c r="D447" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E447" s="8" t="s">
+      <c r="C447" s="8"/>
+      <c r="D447" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E447" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H447" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="7" t="s">
+      <c r="H447" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="C448" s="7"/>
-      <c r="D448" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E448" s="8" t="s">
+      <c r="C448" s="8"/>
+      <c r="D448" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E448" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H448" s="8" t="s">
+      <c r="H448" s="9" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="449" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="7" t="s">
+    <row r="449" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C449" s="7"/>
-      <c r="D449" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E449" s="8" t="s">
+      <c r="C449" s="8"/>
+      <c r="D449" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E449" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H449" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="7" t="s">
+      <c r="H449" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C450" s="7"/>
-      <c r="H450" s="8" t="s">
+      <c r="C450" s="8"/>
+      <c r="H450" s="9" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="451" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="7" t="s">
+    <row r="451" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C451" s="7"/>
-      <c r="D451" s="8" t="s">
+      <c r="C451" s="8"/>
+      <c r="D451" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E451" s="8" t="s">
+      <c r="E451" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="H451" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="7" t="s">
+      <c r="H451" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C452" s="7"/>
-      <c r="D452" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E452" s="8" t="s">
+      <c r="C452" s="8"/>
+      <c r="D452" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E452" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H452" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="7" t="s">
+      <c r="H452" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C453" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D453" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E453" s="8" t="s">
+      <c r="D453" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E453" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H453" s="8" t="s">
+      <c r="H453" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="454" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="7" t="s">
+    <row r="454" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C454" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="D454" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E454" s="8" t="s">
+      <c r="D454" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E454" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H454" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="7" t="s">
+      <c r="H454" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C455" s="7"/>
-      <c r="H455" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="7" t="s">
+      <c r="C455" s="8"/>
+      <c r="H455" s="9" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="C456" s="7"/>
-      <c r="D456" s="8" t="s">
+      <c r="C456" s="8"/>
+      <c r="D456" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E456" s="8" t="s">
+      <c r="E456" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H456" s="8" t="s">
+      <c r="H456" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="457" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+    <row r="457" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="C457" s="7"/>
-      <c r="D457" s="8" t="s">
+      <c r="C457" s="8"/>
+      <c r="D457" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="E457" s="8" t="s">
+      <c r="E457" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="H457" s="8" t="s">
+      <c r="H457" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="458" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="7" t="s">
+    <row r="458" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="C458" s="7"/>
-      <c r="D458" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="E458" s="8" t="s">
+      <c r="C458" s="8"/>
+      <c r="D458" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="E458" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="H458" s="8" t="s">
+      <c r="H458" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
